--- a/UseCase_description.xlsx
+++ b/UseCase_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SWE_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41563421-87A8-4AD5-B9B4-7325A8EB9CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2638ED-6911-475F-9E32-C56DF7E99C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="B2:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
